--- a/_Altium/_Projects/_Luxlogger/Rev06/Output/BOM/LuxLogger V3_Rev 01.xlsx
+++ b/_Altium/_Projects/_Luxlogger/Rev06/Output/BOM/LuxLogger V3_Rev 01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rasmus.muhrbeck\Documents\GitHub\Projects\_Altium\_Projects\_Luxlogger\Rev06\Output\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E27ED82F-CE3B-417A-8A9D-8B03CF79CC04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEAC7D33-4A2F-4BC9-982A-A9F44545A218}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" xr2:uid="{92A4B4C1-7C55-4E90-A461-D043D48EF7E9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" xr2:uid="{85FEA3EB-58AB-48D7-B815-A1C5346F6726}"/>
   </bookViews>
   <sheets>
     <sheet name="LuxLogger V3_Rev 01" sheetId="1" r:id="rId1"/>
@@ -883,7 +883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9289F8F6-BDDF-4FE9-AFE1-9318CF9F5A42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CEF31A3-B19A-4BC4-B24E-D5B9C0468061}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
